--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>634741.122557378</v>
+        <v>632302.7325989606</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>236.0354621315886</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>74.89453720443794</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.10770370629109</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>44.45149398000169</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>103.7078888283116</v>
+        <v>36.02766158664571</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>69.17447067454248</v>
+        <v>97.32228826427223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,19 +1108,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>189.9518552352991</v>
+        <v>119.8620943363778</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>236.9404504125625</v>
+        <v>275.04287909403</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>7.043238784029284</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,19 +1345,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>26.66925886831028</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>331.638843934971</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754641</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106.1267642478507</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>111.3598553131476</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.831980181939</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>99.97427419833367</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>20.92847288552682</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238325</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1895,13 +1895,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046931</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520987</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,13 +2245,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188631</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365923</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>154.0869401039757</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>4.336205468765305e-12</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>108.9065924712543</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>160.9888698962427</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3272,13 +3272,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699795</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>29.24923305751562</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012339</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1666.06771681656</v>
+        <v>1250.335715171007</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>881.3731982305951</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528559</v>
+        <v>523.1074996238447</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>523.1074996238447</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>523.1074996238447</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>108.0350494688411</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.0350494688411</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4343,37 +4343,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.72178906653</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796416</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535336</v>
+        <v>2027.07488721094</v>
       </c>
       <c r="Y2" t="n">
-        <v>1904.487375535336</v>
+        <v>1636.935555235129</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>561.7003711548115</v>
+        <v>249.793641290342</v>
       </c>
       <c r="C4" t="n">
-        <v>561.7003711548115</v>
+        <v>249.793641290342</v>
       </c>
       <c r="D4" t="n">
-        <v>561.7003711548115</v>
+        <v>249.793641290342</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4492,19 +4492,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088492</v>
@@ -4513,25 +4513,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415546</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.594608541189</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335302</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>782.4929502983416</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X4" t="n">
-        <v>782.4929502983416</v>
+        <v>652.2346852641118</v>
       </c>
       <c r="Y4" t="n">
-        <v>561.7003711548115</v>
+        <v>431.4421061205817</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1944.904841306683</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C5" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3255.732618907612</v>
+        <v>3227.300479928088</v>
       </c>
       <c r="T5" t="n">
-        <v>3255.732618907612</v>
+        <v>3021.322732312311</v>
       </c>
       <c r="U5" t="n">
-        <v>3002.202142181448</v>
+        <v>2767.792255586147</v>
       </c>
       <c r="V5" t="n">
-        <v>2671.139254837878</v>
+        <v>2436.729368242576</v>
       </c>
       <c r="W5" t="n">
-        <v>2318.370599567763</v>
+        <v>2083.960712972462</v>
       </c>
       <c r="X5" t="n">
-        <v>1944.904841306683</v>
+        <v>1710.494954711382</v>
       </c>
       <c r="Y5" t="n">
-        <v>1944.904841306683</v>
+        <v>1320.35562273557</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>657.6489837069648</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C7" t="n">
-        <v>657.6489837069648</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5323442946291</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1321.971487641109</v>
+        <v>1302.938768680375</v>
       </c>
       <c r="V7" t="n">
-        <v>1067.286999435222</v>
+        <v>1048.254280474488</v>
       </c>
       <c r="W7" t="n">
-        <v>1067.286999435222</v>
+        <v>758.8371104375277</v>
       </c>
       <c r="X7" t="n">
-        <v>839.2974485372046</v>
+        <v>530.8475595395104</v>
       </c>
       <c r="Y7" t="n">
-        <v>839.2974485372046</v>
+        <v>310.0549803959803</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1859.132475219474</v>
+        <v>1422.200456328343</v>
       </c>
       <c r="C8" t="n">
-        <v>1490.169958279063</v>
+        <v>1422.200456328343</v>
       </c>
       <c r="D8" t="n">
-        <v>1131.904259672312</v>
+        <v>1063.934757721593</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520488</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X8" t="n">
-        <v>2635.871647259408</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y8" t="n">
-        <v>2245.732315283596</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>538.8965081646988</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C10" t="n">
-        <v>369.960325236792</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>219.8436858244562</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>219.8436858244562</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>219.8436858244562</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>219.8436858244562</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>73.62649904231401</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1169.327103036486</v>
+        <v>943.1160480830763</v>
       </c>
       <c r="X10" t="n">
-        <v>941.3375521384687</v>
+        <v>715.126497185059</v>
       </c>
       <c r="Y10" t="n">
-        <v>720.5449729949386</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2266.424947555045</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C11" t="n">
-        <v>1897.462430614633</v>
+        <v>1897.462430614631</v>
       </c>
       <c r="D11" t="n">
-        <v>1539.196732007883</v>
+        <v>1539.19673200788</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.408479409636</v>
       </c>
       <c r="F11" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200284</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608047</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251933</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128758</v>
+        <v>841.9378825128751</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021278</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750194</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469744</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.398533126173</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W11" t="n">
-        <v>3416.629877856059</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X11" t="n">
-        <v>3043.164119594979</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y11" t="n">
-        <v>2653.024787619167</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J12" t="n">
-        <v>240.4596049779265</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="K12" t="n">
-        <v>570.9683475412853</v>
+        <v>423.3203657894392</v>
       </c>
       <c r="L12" t="n">
-        <v>570.9683475412853</v>
+        <v>914.0526986331904</v>
       </c>
       <c r="M12" t="n">
-        <v>1162.986701793413</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N12" t="n">
-        <v>1785.082665192749</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.959140192943</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P12" t="n">
-        <v>2331.959140192943</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>636.3680481283059</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>467.431865200399</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D13" t="n">
-        <v>317.3152257880633</v>
+        <v>381.5742876855604</v>
       </c>
       <c r="E13" t="n">
-        <v>317.3152257880633</v>
+        <v>381.5742876855604</v>
       </c>
       <c r="F13" t="n">
-        <v>317.3152257880633</v>
+        <v>234.6843401876501</v>
       </c>
       <c r="G13" t="n">
-        <v>317.3152257880633</v>
+        <v>234.6843401876501</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861981</v>
+        <v>431.422473086198</v>
       </c>
       <c r="L13" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O13" t="n">
         <v>2020.132206020528</v>
@@ -5221,28 +5221,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1736.450588178207</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1481.76609997232</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1192.348929935359</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>964.3593790373418</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>743.5667998938117</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5270,31 +5270,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,22 +5303,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>562.8579153358626</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876671</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597602</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474245</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="E16" t="n">
-        <v>261.8464821474245</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F16" t="n">
-        <v>114.9565346495141</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,19 +5534,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400672</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>695.502065570307</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,13 +5823,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
         <v>280.8495004245706</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5981,28 +5981,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876677</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614375</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179074</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708915</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429846</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2336.956424518387</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541328</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885526</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679639</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642679</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744661</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011312</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.345997432834</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1273.994462263074</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6920,10 +6920,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7017,10 +7017,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876675</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597606</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597606</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>265.0731740618502</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,49 +7096,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.741944003833</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797731</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602302</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396415</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359455</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614373</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179072</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>290.3783545665696</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4692260666348859</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,19 +22705,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>110.4063010599235</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>50.29152613729082</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>50.29152613729354</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.70521593408657</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>37.25561770506471</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>46.4596884482355</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>144.595665406742</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.54986409393469</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>32.8926045706001</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>144.5956654067415</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>25.74504007796162</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>72.11969353039028</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>6.257951202385158</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823281</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>136.2749052347532</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>948448.1565660085</v>
+        <v>948448.1565660089</v>
       </c>
     </row>
     <row r="3">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375475.6212503244</v>
+        <v>375475.6212503246</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="E2" t="n">
         <v>401339.8858190154</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="G2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="H2" t="n">
+        <v>403573.2998450029</v>
+      </c>
+      <c r="I2" t="n">
         <v>403573.299845003</v>
-      </c>
-      <c r="I2" t="n">
-        <v>403573.2998450031</v>
       </c>
       <c r="J2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="K2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="L2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="M2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="N2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="O2" t="n">
+        <v>403573.299845003</v>
+      </c>
+      <c r="P2" t="n">
         <v>403573.2998450031</v>
-      </c>
-      <c r="P2" t="n">
-        <v>403573.2998450032</v>
       </c>
     </row>
     <row r="3">
@@ -26366,28 +26366,28 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>313680.0588189856</v>
+        <v>313680.0588189851</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504116</v>
+        <v>11452.26311504129</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81924.27863832924</v>
+        <v>81924.27863832902</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.01735570473</v>
+        <v>3077.017355704841</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49738.75772975926</v>
+        <v>49738.75772975945</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="E4" t="n">
         <v>10550.55566555585</v>
@@ -26442,7 +26442,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1110941.82276842</v>
+        <v>-1111117.04908683</v>
       </c>
       <c r="C6" t="n">
-        <v>212842.8213126154</v>
+        <v>212842.8213126155</v>
       </c>
       <c r="D6" t="n">
-        <v>212842.8213126159</v>
+        <v>212842.8213126157</v>
       </c>
       <c r="E6" t="n">
-        <v>-23032.85717936441</v>
+        <v>-23078.76217492959</v>
       </c>
       <c r="F6" t="n">
-        <v>280441.4186192736</v>
+        <v>280406.6806938376</v>
       </c>
       <c r="G6" t="n">
-        <v>291893.6817343147</v>
+        <v>291858.9438088788</v>
       </c>
       <c r="H6" t="n">
-        <v>291893.6817343147</v>
+        <v>291858.9438088789</v>
       </c>
       <c r="I6" t="n">
-        <v>291893.6817343146</v>
+        <v>291858.9438088789</v>
       </c>
       <c r="J6" t="n">
-        <v>74362.47933703757</v>
+        <v>74327.74141160157</v>
       </c>
       <c r="K6" t="n">
-        <v>291893.6817343147</v>
+        <v>291858.943808879</v>
       </c>
       <c r="L6" t="n">
-        <v>291893.6817343147</v>
+        <v>291858.943808879</v>
       </c>
       <c r="M6" t="n">
-        <v>209969.4030959856</v>
+        <v>209934.66517055</v>
       </c>
       <c r="N6" t="n">
-        <v>288816.66437861</v>
+        <v>288781.9264531742</v>
       </c>
       <c r="O6" t="n">
-        <v>291893.6817343147</v>
+        <v>291858.9438088789</v>
       </c>
       <c r="P6" t="n">
-        <v>291893.6817343148</v>
+        <v>291858.943808879</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26960,25 +26960,25 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>268.2643481230875</v>
+        <v>268.2643481230873</v>
       </c>
       <c r="F3" t="n">
         <v>9.93445162528792</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.7438349237141</v>
+        <v>328.7438349237132</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237141</v>
+        <v>328.7438349237132</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237141</v>
+        <v>328.7438349237132</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146.6983795318919</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>325.2796066984673</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>42.72607381825753</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>40.01329111363336</v>
+        <v>11.8654735239036</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>96.25998297031376</v>
+        <v>166.3497438692351</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>144.9899196596993</v>
+        <v>106.8874909782318</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>89.3091816258088</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>259.8537394682807</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-2.034586771846195e-12</v>
       </c>
     </row>
     <row r="20">
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29256,7 +29256,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29673,7 +29673,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-4.336205468765305e-12</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -29992,13 +29992,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,37 +31118,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31157,7 +31157,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31206,16 +31206,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31224,19 +31224,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M11" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U11" t="n">
         <v>0.436756920190194</v>
@@ -31832,43 +31832,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426205</v>
+        <v>507.4786487269588</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q12" t="n">
-        <v>363.028733255008</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31914,7 +31914,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31923,16 +31923,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P13" t="n">
         <v>296.1865264282424</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>460.4622569139914</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>709.4760096096878</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,7 +33026,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,13 +33035,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33193,7 +33193,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460027</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,10 +33266,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>590.4022545401851</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33424,7 +33424,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
@@ -33503,7 +33503,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,13 +33737,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P11" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981761</v>
+        <v>364.8824042825144</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q12" t="n">
-        <v>223.0469591689864</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K13" t="n">
         <v>262.2512393642057</v>
@@ -35574,19 +35574,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>322.6208179396324</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>578.1342975263545</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,13 +36683,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,10 +36914,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>451.847874760311</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37464,7 +37464,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096336</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
         <v>394.3420143191314</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
